--- a/NeuralNetwork/base_dataset.xlsx
+++ b/NeuralNetwork/base_dataset.xlsx
@@ -5,29 +5,63 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\SuperBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\SuperBot\NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B4026-5E0D-4B1E-8EE0-1E1BFD01B21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872403A2-A2C5-415D-AB7B-6E4719B689B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="3720" windowWidth="15000" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ping" sheetId="1" r:id="rId1"/>
-    <sheet name="time" sheetId="2" r:id="rId2"/>
-    <sheet name="play" sheetId="3" r:id="rId3"/>
+    <sheet name="merge" sheetId="5" r:id="rId1"/>
+    <sheet name="skip" sheetId="6" r:id="rId2"/>
+    <sheet name="queue" sheetId="7" r:id="rId3"/>
+    <sheet name="ping" sheetId="1" r:id="rId4"/>
+    <sheet name="time" sheetId="2" r:id="rId5"/>
+    <sheet name="play" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="184">
   <si>
     <t>command</t>
   </si>
@@ -357,13 +391,235 @@
   </si>
   <si>
     <t>musicaliza</t>
+  </si>
+  <si>
+    <t>tocate</t>
+  </si>
+  <si>
+    <t>ponete</t>
+  </si>
+  <si>
+    <t>poneme</t>
+  </si>
+  <si>
+    <t>tocame</t>
+  </si>
+  <si>
+    <t>sacame esto</t>
+  </si>
+  <si>
+    <t>saca esta verga</t>
+  </si>
+  <si>
+    <t>sacate esto</t>
+  </si>
+  <si>
+    <t>sacate esta cancion</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>saca esta cancion</t>
+  </si>
+  <si>
+    <t>saca la cancion</t>
+  </si>
+  <si>
+    <t>sacame la cancion</t>
+  </si>
+  <si>
+    <t>sacate la cancion</t>
+  </si>
+  <si>
+    <t>skipea esta cancion</t>
+  </si>
+  <si>
+    <t>saltea esta cancion</t>
+  </si>
+  <si>
+    <t>saltear</t>
+  </si>
+  <si>
+    <t>salteate esta cancion</t>
+  </si>
+  <si>
+    <t>saltea la cancion</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>saca esto</t>
+  </si>
+  <si>
+    <t>saltea</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>que hay</t>
+  </si>
+  <si>
+    <t>que hay para escuchar?</t>
+  </si>
+  <si>
+    <t>que vamos a escuchar?</t>
+  </si>
+  <si>
+    <t>que hay en la cola?</t>
+  </si>
+  <si>
+    <t>que hay encolado?</t>
+  </si>
+  <si>
+    <t>que hay en cola?</t>
+  </si>
+  <si>
+    <t>cola?</t>
+  </si>
+  <si>
+    <t>mostrame que hay en la cola</t>
+  </si>
+  <si>
+    <t>mostrame que hay en colado</t>
+  </si>
+  <si>
+    <t>mostrame las proximas canciones</t>
+  </si>
+  <si>
+    <t>que canciones siguen?</t>
+  </si>
+  <si>
+    <t>que canciones faltan?</t>
+  </si>
+  <si>
+    <t>que sigue?</t>
+  </si>
+  <si>
+    <t>cuales siguen</t>
+  </si>
+  <si>
+    <t>saca esta mierda</t>
+  </si>
+  <si>
+    <t>skipea esta mierda</t>
+  </si>
+  <si>
+    <t>saltea esta mierda</t>
+  </si>
+  <si>
+    <t>saltea esta verga</t>
+  </si>
+  <si>
+    <t>que cancion sigue?</t>
+  </si>
+  <si>
+    <t>cuales son las siguientes canciones?</t>
+  </si>
+  <si>
+    <t>cual sigue?</t>
+  </si>
+  <si>
+    <t>decime las siguentes</t>
+  </si>
+  <si>
+    <t>decime las siguentes canciones</t>
+  </si>
+  <si>
+    <t>decime las proximas canciones</t>
+  </si>
+  <si>
+    <t>decime las proximas</t>
+  </si>
+  <si>
+    <t>dime las siguentes</t>
+  </si>
+  <si>
+    <t>dime las siguentes canciones</t>
+  </si>
+  <si>
+    <t>dime las proximas canciones</t>
+  </si>
+  <si>
+    <t>dime las proximas</t>
+  </si>
+  <si>
+    <t>canciones</t>
+  </si>
+  <si>
+    <t>lista de canciones</t>
+  </si>
+  <si>
+    <t>proximas</t>
+  </si>
+  <si>
+    <t>siguiente</t>
+  </si>
+  <si>
+    <t>proxima</t>
+  </si>
+  <si>
+    <t>la que sigue</t>
+  </si>
+  <si>
+    <t>podrias pasar a la siguiente</t>
+  </si>
+  <si>
+    <t>pasar a la siguiente</t>
+  </si>
+  <si>
+    <t>pasa a la siguiente</t>
+  </si>
+  <si>
+    <t>pasa a la proxima</t>
+  </si>
+  <si>
+    <t>pasar a la proxima</t>
+  </si>
+  <si>
+    <t>podrias pasar a la proxima</t>
+  </si>
+  <si>
+    <t>proxima cancion</t>
+  </si>
+  <si>
+    <t>siguiente cancion</t>
+  </si>
+  <si>
+    <t>mostrame las canciones siguientes</t>
+  </si>
+  <si>
+    <t>mostrame las canciones</t>
+  </si>
+  <si>
+    <t>mostra las canciones</t>
+  </si>
+  <si>
+    <t>mostra las siguientes canciones</t>
+  </si>
+  <si>
+    <t>mostra las proximas canciones</t>
+  </si>
+  <si>
+    <t>mostrate las siguientes canciones</t>
+  </si>
+  <si>
+    <t>mostrate las proximas canciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,16 +627,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -388,12 +658,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,11 +960,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE0B91-7C21-47E0-B271-0EFD3FBA51EA}">
+  <dimension ref="A1:B103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:B33">play!A2:B33</f>
+        <v>poneme el tema</v>
+      </c>
+      <c r="B2" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>que suene</v>
+      </c>
+      <c r="B3" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>play</v>
+      </c>
+      <c r="B4" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>dale play a</v>
+      </c>
+      <c r="B5" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>musicalizame con</v>
+      </c>
+      <c r="B6" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>toca</v>
+      </c>
+      <c r="B7" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <v>musica</v>
+      </c>
+      <c r="B8" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>toca la cancion</v>
+      </c>
+      <c r="B9" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>pone la cancion</v>
+      </c>
+      <c r="B10" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <v>cancion</v>
+      </c>
+      <c r="B11" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <v>tocar</v>
+      </c>
+      <c r="B12" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>toca</v>
+      </c>
+      <c r="B13" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>pon</v>
+      </c>
+      <c r="B14" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>pone</v>
+      </c>
+      <c r="B15" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>puedes tocar la cancion</v>
+      </c>
+      <c r="B16" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <v>podes tocar la cancion</v>
+      </c>
+      <c r="B17" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <v>puedes poner la cancion</v>
+      </c>
+      <c r="B18" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <v>podes poner la cancion</v>
+      </c>
+      <c r="B19" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <v>podes poner el tema</v>
+      </c>
+      <c r="B20" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <v>puedes poner el tema</v>
+      </c>
+      <c r="B21" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <v>tema</v>
+      </c>
+      <c r="B22" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <v>pone el tema</v>
+      </c>
+      <c r="B23" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>pon el tema</v>
+      </c>
+      <c r="B24" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <v>pone la cancion</v>
+      </c>
+      <c r="B25" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>pon la cancion</v>
+      </c>
+      <c r="B26" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>musicaliza con</v>
+      </c>
+      <c r="B27" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>musicaliza</v>
+      </c>
+      <c r="B28" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <v>tocate</v>
+      </c>
+      <c r="B29" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <v>ponete</v>
+      </c>
+      <c r="B30" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <v>poneme</v>
+      </c>
+      <c r="B31" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <v>tocame</v>
+      </c>
+      <c r="B32" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <v>p</v>
+      </c>
+      <c r="B33" t="str">
+        <v>play</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str" cm="1">
+        <f t="array" ref="A34:B71">queue!A2:B39</f>
+        <v>q</v>
+      </c>
+      <c r="B34" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <v>que hay</v>
+      </c>
+      <c r="B35" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <v>que hay para escuchar?</v>
+      </c>
+      <c r="B36" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <v>que vamos a escuchar?</v>
+      </c>
+      <c r="B37" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <v>que hay en la cola?</v>
+      </c>
+      <c r="B38" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <v>que hay encolado?</v>
+      </c>
+      <c r="B39" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <v>que hay en cola?</v>
+      </c>
+      <c r="B40" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <v>cola?</v>
+      </c>
+      <c r="B41" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <v>queue</v>
+      </c>
+      <c r="B42" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <v>mostrame que hay en la cola</v>
+      </c>
+      <c r="B43" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <v>mostrame que hay en colado</v>
+      </c>
+      <c r="B44" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <v>mostrame las proximas canciones</v>
+      </c>
+      <c r="B45" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <v>que canciones siguen?</v>
+      </c>
+      <c r="B46" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <v>que canciones faltan?</v>
+      </c>
+      <c r="B47" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <v>que sigue?</v>
+      </c>
+      <c r="B48" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <v>cuales siguen</v>
+      </c>
+      <c r="B49" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <v>que cancion sigue?</v>
+      </c>
+      <c r="B50" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <v>cuales son las siguientes canciones?</v>
+      </c>
+      <c r="B51" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <v>cual sigue?</v>
+      </c>
+      <c r="B52" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <v>decime las siguentes</v>
+      </c>
+      <c r="B53" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <v>decime las siguentes canciones</v>
+      </c>
+      <c r="B54" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <v>decime las proximas canciones</v>
+      </c>
+      <c r="B55" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <v>decime las proximas</v>
+      </c>
+      <c r="B56" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <v>dime las siguentes</v>
+      </c>
+      <c r="B57" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <v>dime las siguentes canciones</v>
+      </c>
+      <c r="B58" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <v>dime las proximas canciones</v>
+      </c>
+      <c r="B59" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <v>dime las proximas</v>
+      </c>
+      <c r="B60" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <v>canciones</v>
+      </c>
+      <c r="B61" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <v>lista de canciones</v>
+      </c>
+      <c r="B62" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <v>proximas</v>
+      </c>
+      <c r="B63" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <v>mostrame las canciones siguientes</v>
+      </c>
+      <c r="B64" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <v>mostrame las proximas canciones</v>
+      </c>
+      <c r="B65" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <v>mostrame las canciones</v>
+      </c>
+      <c r="B66" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <v>mostra las canciones</v>
+      </c>
+      <c r="B67" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <v>mostra las siguientes canciones</v>
+      </c>
+      <c r="B68" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <v>mostra las proximas canciones</v>
+      </c>
+      <c r="B69" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <v>mostrate las siguientes canciones</v>
+      </c>
+      <c r="B70" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <v>mostrate las proximas canciones</v>
+      </c>
+      <c r="B71" t="str">
+        <v>queue</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="str" cm="1">
+        <f t="array" ref="A72:B103">skip!A2:B33</f>
+        <v>sacame esto</v>
+      </c>
+      <c r="B72" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <v>saca esta verga</v>
+      </c>
+      <c r="B73" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <v>sacate esto</v>
+      </c>
+      <c r="B74" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <v>sacate esta cancion</v>
+      </c>
+      <c r="B75" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <v>skip</v>
+      </c>
+      <c r="B76" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <v>s</v>
+      </c>
+      <c r="B77" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <v>saca esta cancion</v>
+      </c>
+      <c r="B78" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <v>saca la cancion</v>
+      </c>
+      <c r="B79" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <v>sacame la cancion</v>
+      </c>
+      <c r="B80" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <v>sacate la cancion</v>
+      </c>
+      <c r="B81" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <v>skipea esta cancion</v>
+      </c>
+      <c r="B82" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <v>saltea esta cancion</v>
+      </c>
+      <c r="B83" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <v>saltear</v>
+      </c>
+      <c r="B84" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <v>salteate esta cancion</v>
+      </c>
+      <c r="B85" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <v>saltea la cancion</v>
+      </c>
+      <c r="B86" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <v>saca esto</v>
+      </c>
+      <c r="B87" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <v>saltea</v>
+      </c>
+      <c r="B88" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <v>saca esta mierda</v>
+      </c>
+      <c r="B89" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <v>skipea esta mierda</v>
+      </c>
+      <c r="B90" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <v>saltea esta mierda</v>
+      </c>
+      <c r="B91" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <v>saltea esta verga</v>
+      </c>
+      <c r="B92" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <v>siguiente</v>
+      </c>
+      <c r="B93" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <v>proxima</v>
+      </c>
+      <c r="B94" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <v>la que sigue</v>
+      </c>
+      <c r="B95" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <v>podrias pasar a la siguiente</v>
+      </c>
+      <c r="B96" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <v>pasar a la siguiente</v>
+      </c>
+      <c r="B97" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <v>pasa a la siguiente</v>
+      </c>
+      <c r="B98" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <v>pasa a la proxima</v>
+      </c>
+      <c r="B99" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <v>pasar a la proxima</v>
+      </c>
+      <c r="B100" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <v>podrias pasar a la proxima</v>
+      </c>
+      <c r="B101" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <v>proxima cancion</v>
+      </c>
+      <c r="B102" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <v>siguiente cancion</v>
+      </c>
+      <c r="B103" t="str">
+        <v>skip</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F207923C-2FD8-43F2-B2E7-1163C6686ADF}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3156EA91-F3C2-46E6-8B79-23F209352494}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,12 +2902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402F4A4-9D3C-499D-9F48-C82B97350E82}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,17 +3161,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F54364-EF6D-4D1F-BF3B-4F2DCABCF230}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1652,6 +3399,46 @@
         <v>79</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
